--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2427,28 +2427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>368.5123262289237</v>
+        <v>420.227281655804</v>
       </c>
       <c r="AB2" t="n">
-        <v>504.2148223628425</v>
+        <v>574.9735058807132</v>
       </c>
       <c r="AC2" t="n">
-        <v>456.0932673864799</v>
+        <v>520.0988414598411</v>
       </c>
       <c r="AD2" t="n">
-        <v>368512.3262289236</v>
+        <v>420227.281655804</v>
       </c>
       <c r="AE2" t="n">
-        <v>504214.8223628425</v>
+        <v>574973.5058807132</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.451138480191426e-06</v>
+        <v>3.533719121214112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.39908854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>456093.2673864799</v>
+        <v>520098.8414598411</v>
       </c>
     </row>
     <row r="3">
@@ -2533,28 +2533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.3350445266416</v>
+        <v>230.7832643625544</v>
       </c>
       <c r="AB3" t="n">
-        <v>268.6342696120805</v>
+        <v>315.7678437397536</v>
       </c>
       <c r="AC3" t="n">
-        <v>242.9961919509475</v>
+        <v>285.6314039162773</v>
       </c>
       <c r="AD3" t="n">
-        <v>196335.0445266415</v>
+        <v>230783.2643625544</v>
       </c>
       <c r="AE3" t="n">
-        <v>268634.2696120805</v>
+        <v>315767.8437397536</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.775162202721978e-06</v>
+        <v>5.442517005567798e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.050130208333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>242996.1919509475</v>
+        <v>285631.4039162773</v>
       </c>
     </row>
     <row r="4">
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.4064615759352</v>
+        <v>188.3066544709364</v>
       </c>
       <c r="AB4" t="n">
-        <v>222.2116855955081</v>
+        <v>257.6494721502983</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.0041141983961</v>
+        <v>233.0597681416542</v>
       </c>
       <c r="AD4" t="n">
-        <v>162406.4615759352</v>
+        <v>188306.6544709364</v>
       </c>
       <c r="AE4" t="n">
-        <v>222211.6855955081</v>
+        <v>257649.4721502983</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.275790874903688e-06</v>
+        <v>6.164255546989732e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>201004.1141983961</v>
+        <v>233059.7681416542</v>
       </c>
     </row>
     <row r="5">
@@ -2745,28 +2745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>140.2306687077996</v>
+        <v>174.6787990351615</v>
       </c>
       <c r="AB5" t="n">
-        <v>191.8697874664057</v>
+        <v>239.0032391245304</v>
       </c>
       <c r="AC5" t="n">
-        <v>173.5580042416041</v>
+        <v>216.1931054257073</v>
       </c>
       <c r="AD5" t="n">
-        <v>140230.6687077996</v>
+        <v>174678.7990351615</v>
       </c>
       <c r="AE5" t="n">
-        <v>191869.7874664057</v>
+        <v>239003.2391245304</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.571387737292217e-06</v>
+        <v>6.590407024449981e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.647135416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>173558.0042416041</v>
+        <v>216193.1054257073</v>
       </c>
     </row>
     <row r="6">
@@ -2851,28 +2851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>133.4412849426621</v>
+        <v>159.2561369830917</v>
       </c>
       <c r="AB6" t="n">
-        <v>182.580253072477</v>
+        <v>217.9012725050696</v>
       </c>
       <c r="AC6" t="n">
-        <v>165.1550499722856</v>
+        <v>197.1050808836049</v>
       </c>
       <c r="AD6" t="n">
-        <v>133441.2849426621</v>
+        <v>159256.1369830917</v>
       </c>
       <c r="AE6" t="n">
-        <v>182580.253072477</v>
+        <v>217901.2725050696</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.693230411144721e-06</v>
+        <v>6.766063271476392e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.474609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>165155.0499722856</v>
+        <v>197105.0808836049</v>
       </c>
     </row>
     <row r="7">
@@ -2957,28 +2957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>132.5203921829072</v>
+        <v>158.3352442233368</v>
       </c>
       <c r="AB7" t="n">
-        <v>181.3202469716597</v>
+        <v>216.6412664042523</v>
       </c>
       <c r="AC7" t="n">
-        <v>164.0152970853003</v>
+        <v>195.9653279966196</v>
       </c>
       <c r="AD7" t="n">
-        <v>132520.3921829072</v>
+        <v>158335.2442233368</v>
       </c>
       <c r="AE7" t="n">
-        <v>181320.2469716597</v>
+        <v>216641.2664042523</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.710876591495774e-06</v>
+        <v>6.79150314173539e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.451822916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>164015.2970853003</v>
+        <v>195965.3279966196</v>
       </c>
     </row>
   </sheetData>
@@ -3254,28 +3254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>265.9098183950751</v>
+        <v>307.9116848240696</v>
       </c>
       <c r="AB2" t="n">
-        <v>363.82954464139</v>
+        <v>421.2983512811095</v>
       </c>
       <c r="AC2" t="n">
-        <v>329.106163538788</v>
+        <v>381.0902279307894</v>
       </c>
       <c r="AD2" t="n">
-        <v>265909.8183950751</v>
+        <v>307911.6848240696</v>
       </c>
       <c r="AE2" t="n">
-        <v>363829.54464139</v>
+        <v>421298.3512811096</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.009905014787684e-06</v>
+        <v>4.406387712174293e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.44596354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>329106.163538788</v>
+        <v>381090.2279307893</v>
       </c>
     </row>
     <row r="3">
@@ -3360,28 +3360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.5507986655713</v>
+        <v>193.0499006849907</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.3044416185939</v>
+        <v>264.1393908776184</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.4697721027861</v>
+        <v>238.9302981342992</v>
       </c>
       <c r="AD3" t="n">
-        <v>159550.7986655713</v>
+        <v>193049.9006849907</v>
       </c>
       <c r="AE3" t="n">
-        <v>218304.4416185939</v>
+        <v>264139.3908776185</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.230460470676782e-06</v>
+        <v>6.193234983577769e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.431640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>197469.7721027861</v>
+        <v>238930.2981342992</v>
       </c>
     </row>
     <row r="4">
@@ -3466,28 +3466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>131.129622337849</v>
+        <v>164.713975703289</v>
       </c>
       <c r="AB4" t="n">
-        <v>179.4173343132167</v>
+        <v>225.3689282248905</v>
       </c>
       <c r="AC4" t="n">
-        <v>162.2939957402238</v>
+        <v>203.8600340224492</v>
       </c>
       <c r="AD4" t="n">
-        <v>131129.622337849</v>
+        <v>164713.975703289</v>
       </c>
       <c r="AE4" t="n">
-        <v>179417.3343132167</v>
+        <v>225368.9282248906</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.71416243499526e-06</v>
+        <v>6.901356462978625e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.669921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>162293.9957402238</v>
+        <v>203860.0340224492</v>
       </c>
     </row>
     <row r="5">
@@ -3572,28 +3572,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>124.4797726841286</v>
+        <v>149.6467920031168</v>
       </c>
       <c r="AB5" t="n">
-        <v>170.3187166463394</v>
+        <v>204.7533427690937</v>
       </c>
       <c r="AC5" t="n">
-        <v>154.0637373734802</v>
+        <v>185.2119711083911</v>
       </c>
       <c r="AD5" t="n">
-        <v>124479.7726841286</v>
+        <v>149646.7920031167</v>
       </c>
       <c r="AE5" t="n">
-        <v>170318.7166463394</v>
+        <v>204753.3427690937</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.853052895196932e-06</v>
+        <v>7.104686871800197e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.477864583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>154063.7373734802</v>
+        <v>185211.9711083911</v>
       </c>
     </row>
     <row r="6">
@@ -3678,28 +3678,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>124.849729442095</v>
+        <v>150.0167487610831</v>
       </c>
       <c r="AB6" t="n">
-        <v>170.8249078039291</v>
+        <v>205.2595339266834</v>
       </c>
       <c r="AC6" t="n">
-        <v>154.5216183574334</v>
+        <v>185.6698520923443</v>
       </c>
       <c r="AD6" t="n">
-        <v>124849.729442095</v>
+        <v>150016.7487610831</v>
       </c>
       <c r="AE6" t="n">
-        <v>170824.9078039291</v>
+        <v>205259.5339266834</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.851893864930992e-06</v>
+        <v>7.102990095092367e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.481119791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>154521.6183574334</v>
+        <v>185669.8520923443</v>
       </c>
     </row>
   </sheetData>
@@ -3975,28 +3975,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.4391484930787</v>
+        <v>144.741104204349</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.1584004852751</v>
+        <v>198.0411642991517</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.3004759477861</v>
+        <v>179.1403935310167</v>
       </c>
       <c r="AD2" t="n">
-        <v>121439.1484930787</v>
+        <v>144741.104204349</v>
       </c>
       <c r="AE2" t="n">
-        <v>166158.4004852751</v>
+        <v>198041.1642991517</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.857776124252037e-06</v>
+        <v>7.515579273685704e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.223307291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>150300.4759477862</v>
+        <v>179140.3935310167</v>
       </c>
     </row>
     <row r="3">
@@ -4081,28 +4081,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.7872695025748</v>
+        <v>137.7710835849622</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.1110532551969</v>
+        <v>188.5044745921037</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.1664194007117</v>
+        <v>170.5138721047782</v>
       </c>
       <c r="AD3" t="n">
-        <v>106787.2695025748</v>
+        <v>137771.0835849622</v>
       </c>
       <c r="AE3" t="n">
-        <v>146111.0532551969</v>
+        <v>188504.4745921037</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.113420189806268e-06</v>
+        <v>7.911092197990332e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.861979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>132166.4194007117</v>
+        <v>170513.8721047782</v>
       </c>
     </row>
   </sheetData>
@@ -4378,28 +4378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.434098619447</v>
+        <v>195.4347093204044</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.6177439345869</v>
+        <v>267.4023912629214</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.275980303009</v>
+        <v>241.8818823424797</v>
       </c>
       <c r="AD2" t="n">
-        <v>163434.098619447</v>
+        <v>195434.7093204044</v>
       </c>
       <c r="AE2" t="n">
-        <v>223617.7439345869</v>
+        <v>267402.3912629214</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.092365743743077e-06</v>
+        <v>6.184767665167051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.199869791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>202275.980303009</v>
+        <v>241881.8823424797</v>
       </c>
     </row>
     <row r="3">
@@ -4484,28 +4484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.6836509730772</v>
+        <v>144.6841721654835</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.1787425131257</v>
+        <v>197.9632673719118</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.4641397189394</v>
+        <v>179.0699309771834</v>
       </c>
       <c r="AD3" t="n">
-        <v>112683.6509730772</v>
+        <v>144684.1721654835</v>
       </c>
       <c r="AE3" t="n">
-        <v>154178.7425131257</v>
+        <v>197963.2673719118</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.059393490853664e-06</v>
+        <v>7.646230866688852e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.634114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>139464.1397189394</v>
+        <v>179069.9309771834</v>
       </c>
     </row>
     <row r="4">
@@ -4590,28 +4590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.6545868663735</v>
+        <v>144.6551080587798</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.1389757201158</v>
+        <v>197.9235005789018</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.4281682128412</v>
+        <v>179.0339594710853</v>
       </c>
       <c r="AD4" t="n">
-        <v>112654.5868663735</v>
+        <v>144655.1080587798</v>
       </c>
       <c r="AE4" t="n">
-        <v>154138.9757201158</v>
+        <v>197923.5005789018</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.073828279700607e-06</v>
+        <v>7.668046076008933e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.614583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>139428.1682128412</v>
+        <v>179033.9594710853</v>
       </c>
     </row>
   </sheetData>
@@ -4887,28 +4887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.9718511943145</v>
+        <v>132.6483756142887</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.4683384196617</v>
+        <v>181.4953595487063</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.1078513845695</v>
+        <v>164.1736971637656</v>
       </c>
       <c r="AD2" t="n">
-        <v>109971.8511943145</v>
+        <v>132648.3756142887</v>
       </c>
       <c r="AE2" t="n">
-        <v>150468.3384196617</v>
+        <v>181495.3595487063</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.072633124204402e-06</v>
+        <v>8.017235732218774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.184244791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>136107.8513845695</v>
+        <v>164173.6971637656</v>
       </c>
     </row>
   </sheetData>
@@ -5184,28 +5184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.5368827585348</v>
+        <v>335.2966378186051</v>
       </c>
       <c r="AB2" t="n">
-        <v>389.3159158715577</v>
+        <v>458.7676521070929</v>
       </c>
       <c r="AC2" t="n">
-        <v>352.1601512690952</v>
+        <v>414.9835112744349</v>
       </c>
       <c r="AD2" t="n">
-        <v>284536.8827585347</v>
+        <v>335296.6378186051</v>
       </c>
       <c r="AE2" t="n">
-        <v>389315.9158715577</v>
+        <v>458767.6521070929</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.860347917442482e-06</v>
+        <v>4.170062010347325e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.89192708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>352160.1512690952</v>
+        <v>414983.5112744349</v>
       </c>
     </row>
     <row r="3">
@@ -5290,28 +5290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.1344249816816</v>
+        <v>200.0311555914424</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.3124495933857</v>
+        <v>273.6914518318504</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.6180684392852</v>
+        <v>247.570723797464</v>
       </c>
       <c r="AD3" t="n">
-        <v>166134.4249816816</v>
+        <v>200031.1555914424</v>
       </c>
       <c r="AE3" t="n">
-        <v>227312.4495933857</v>
+        <v>273691.4518318505</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.113012415503914e-06</v>
+        <v>5.996304406673511e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.574869791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>205618.0684392852</v>
+        <v>247570.723797464</v>
       </c>
     </row>
     <row r="4">
@@ -5396,28 +5396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.8952643236854</v>
+        <v>170.7066540788747</v>
       </c>
       <c r="AB4" t="n">
-        <v>187.3061400404067</v>
+        <v>233.5683751566738</v>
       </c>
       <c r="AC4" t="n">
-        <v>169.4299049208216</v>
+        <v>211.2769372470617</v>
       </c>
       <c r="AD4" t="n">
-        <v>136895.2643236854</v>
+        <v>170706.6540788747</v>
       </c>
       <c r="AE4" t="n">
-        <v>187306.1400404067</v>
+        <v>233568.3751566738</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.593900811489291e-06</v>
+        <v>6.697385005675785e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.783854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>169429.9049208216</v>
+        <v>211276.9372470617</v>
       </c>
     </row>
     <row r="5">
@@ -5502,28 +5502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.0945883509826</v>
+        <v>152.4318849622827</v>
       </c>
       <c r="AB5" t="n">
-        <v>173.896422799253</v>
+        <v>208.5640298254523</v>
       </c>
       <c r="AC5" t="n">
-        <v>157.299992272503</v>
+        <v>188.6589715404249</v>
       </c>
       <c r="AD5" t="n">
-        <v>127094.5883509826</v>
+        <v>152431.8849622827</v>
       </c>
       <c r="AE5" t="n">
-        <v>173896.422799253</v>
+        <v>208564.0298254523</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.804959512354689e-06</v>
+        <v>7.005084591822285e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>157299.992272503</v>
+        <v>188658.9715404249</v>
       </c>
     </row>
     <row r="6">
@@ -5608,28 +5608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>126.5946576794988</v>
+        <v>151.9319542907988</v>
       </c>
       <c r="AB6" t="n">
-        <v>173.2123955991445</v>
+        <v>207.8800026253438</v>
       </c>
       <c r="AC6" t="n">
-        <v>156.6812476683345</v>
+        <v>188.0402269362564</v>
       </c>
       <c r="AD6" t="n">
-        <v>126594.6576794988</v>
+        <v>151931.9542907988</v>
       </c>
       <c r="AE6" t="n">
-        <v>173212.3955991445</v>
+        <v>207880.0026253438</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.824677468081796e-06</v>
+        <v>7.033831129122139e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.458333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>156681.2476683345</v>
+        <v>188040.2269362564</v>
       </c>
     </row>
   </sheetData>
@@ -5905,28 +5905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.3118966378387</v>
+        <v>138.0533445620135</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.1971153634661</v>
+        <v>188.8906765133807</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.0533906691749</v>
+        <v>170.8632154567264</v>
       </c>
       <c r="AD2" t="n">
-        <v>108311.8966378387</v>
+        <v>138053.3445620135</v>
       </c>
       <c r="AE2" t="n">
-        <v>148197.1153634661</v>
+        <v>188890.6765133807</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.970156248067696e-06</v>
+        <v>7.963357787566276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.503255208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>134053.390669175</v>
+        <v>170863.2154567264</v>
       </c>
     </row>
   </sheetData>
@@ -6202,28 +6202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.3026421607105</v>
+        <v>251.2981140699822</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.7453529019219</v>
+        <v>343.8371661607359</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.2833402741863</v>
+        <v>311.0218296009514</v>
       </c>
       <c r="AD2" t="n">
-        <v>210302.6421607105</v>
+        <v>251298.1140699822</v>
       </c>
       <c r="AE2" t="n">
-        <v>287745.3529019219</v>
+        <v>343837.1661607359</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.502273207211648e-06</v>
+        <v>5.200326546217035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.248046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>260283.3402741863</v>
+        <v>311021.8296009514</v>
       </c>
     </row>
     <row r="3">
@@ -6308,28 +6308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.8880055123943</v>
+        <v>163.7355159457139</v>
       </c>
       <c r="AB3" t="n">
-        <v>179.0867435132478</v>
+        <v>224.030156417979</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.9949560622167</v>
+        <v>202.6490327178108</v>
       </c>
       <c r="AD3" t="n">
-        <v>130888.0055123943</v>
+        <v>163735.5159457139</v>
       </c>
       <c r="AE3" t="n">
-        <v>179086.7435132478</v>
+        <v>224030.156417979</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.640208483806101e-06</v>
+        <v>6.889982000441953e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.982421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>161994.9560622167</v>
+        <v>202649.0327178108</v>
       </c>
     </row>
     <row r="4">
@@ -6414,28 +6414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.8746976670042</v>
+        <v>142.489084786902</v>
       </c>
       <c r="AB4" t="n">
-        <v>161.2813616125703</v>
+        <v>194.9598519801176</v>
       </c>
       <c r="AC4" t="n">
-        <v>145.8888948201237</v>
+        <v>176.3531573350612</v>
       </c>
       <c r="AD4" t="n">
-        <v>117874.6976670042</v>
+        <v>142489.084786902</v>
       </c>
       <c r="AE4" t="n">
-        <v>161281.3616125703</v>
+        <v>194959.8519801176</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.997560961134539e-06</v>
+        <v>7.420594395380447e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.481119791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>145888.8948201237</v>
+        <v>176353.1573350611</v>
       </c>
     </row>
     <row r="5">
@@ -6520,28 +6520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.2268753918671</v>
+        <v>142.8412625117649</v>
       </c>
       <c r="AB5" t="n">
-        <v>161.7632267127121</v>
+        <v>195.4417170802595</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.3247713914101</v>
+        <v>176.7890339063475</v>
       </c>
       <c r="AD5" t="n">
-        <v>118226.8753918671</v>
+        <v>142841.2625117649</v>
       </c>
       <c r="AE5" t="n">
-        <v>161763.2267127121</v>
+        <v>195441.7170802595</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.997560961134539e-06</v>
+        <v>7.420594395380447e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.481119791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>146324.7713914101</v>
+        <v>176789.0339063475</v>
       </c>
     </row>
   </sheetData>
@@ -6817,28 +6817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.5736681946547</v>
+        <v>291.2809474568707</v>
       </c>
       <c r="AB2" t="n">
-        <v>341.4777032369312</v>
+        <v>398.543442718957</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.8875505070669</v>
+        <v>360.5070159050939</v>
       </c>
       <c r="AD2" t="n">
-        <v>249573.6681946547</v>
+        <v>291280.9474568707</v>
       </c>
       <c r="AE2" t="n">
-        <v>341477.7032369312</v>
+        <v>398543.442718957</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.159105859003664e-06</v>
+        <v>4.645283451185535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.04557291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>308887.5505070669</v>
+        <v>360507.0159050939</v>
       </c>
     </row>
     <row r="3">
@@ -6923,28 +6923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.7828517685377</v>
+        <v>176.8584596420284</v>
       </c>
       <c r="AB3" t="n">
-        <v>207.6759939764472</v>
+        <v>241.9855469266837</v>
       </c>
       <c r="AC3" t="n">
-        <v>187.8556885864824</v>
+        <v>218.8907859569193</v>
       </c>
       <c r="AD3" t="n">
-        <v>151782.8517685377</v>
+        <v>176858.4596420284</v>
       </c>
       <c r="AE3" t="n">
-        <v>207675.9939764471</v>
+        <v>241985.5469266837</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.381991836893292e-06</v>
+        <v>6.443466940221613e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.242838541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>187855.6885864824</v>
+        <v>218890.7859569193</v>
       </c>
     </row>
     <row r="4">
@@ -7029,28 +7029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.7276121682306</v>
+        <v>149.888471387742</v>
       </c>
       <c r="AB4" t="n">
-        <v>170.6578215623941</v>
+        <v>205.0840191652798</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.3704785922834</v>
+        <v>185.5110882134326</v>
       </c>
       <c r="AD4" t="n">
-        <v>124727.6121682306</v>
+        <v>149888.471387742</v>
       </c>
       <c r="AE4" t="n">
-        <v>170657.8215623941</v>
+        <v>205084.0191652798</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.855662709209335e-06</v>
+        <v>7.139972712007395e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.536458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>154370.4785922834</v>
+        <v>185511.0882134326</v>
       </c>
     </row>
     <row r="5">
@@ -7135,28 +7135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>122.3902038892299</v>
+        <v>147.3804709081491</v>
       </c>
       <c r="AB5" t="n">
-        <v>167.4596764358914</v>
+        <v>201.6524622639303</v>
       </c>
       <c r="AC5" t="n">
-        <v>151.4775599480284</v>
+        <v>182.4070342865264</v>
       </c>
       <c r="AD5" t="n">
-        <v>122390.2038892299</v>
+        <v>147380.4709081491</v>
       </c>
       <c r="AE5" t="n">
-        <v>167459.6764358914</v>
+        <v>201652.4622639303</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.899539179473275e-06</v>
+        <v>7.204490537718305e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.477864583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>151477.5599480284</v>
+        <v>182407.0342865264</v>
       </c>
     </row>
   </sheetData>
@@ -7432,28 +7432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>334.9968469855904</v>
+        <v>386.4888182355655</v>
       </c>
       <c r="AB2" t="n">
-        <v>458.3574650635242</v>
+        <v>528.8110517931854</v>
       </c>
       <c r="AC2" t="n">
-        <v>414.6124719066032</v>
+        <v>478.3420672010157</v>
       </c>
       <c r="AD2" t="n">
-        <v>334996.8469855904</v>
+        <v>386488.8182355656</v>
       </c>
       <c r="AE2" t="n">
-        <v>458357.4650635241</v>
+        <v>528811.0517931854</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.584514866801836e-06</v>
+        <v>3.739205052356995e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.85221354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>414612.4719066032</v>
+        <v>478342.0672010157</v>
       </c>
     </row>
     <row r="3">
@@ -7538,28 +7538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.3157673803095</v>
+        <v>214.6437482136257</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.7159878998501</v>
+        <v>293.6850457196002</v>
       </c>
       <c r="AC3" t="n">
-        <v>223.1697602828239</v>
+        <v>265.6561571457586</v>
       </c>
       <c r="AD3" t="n">
-        <v>180315.7673803095</v>
+        <v>214643.7482136257</v>
       </c>
       <c r="AE3" t="n">
-        <v>246715.9878998501</v>
+        <v>293685.0457196002</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.883454280959543e-06</v>
+        <v>5.618474884584483e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.887369791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>223169.7602828239</v>
+        <v>265656.1571457586</v>
       </c>
     </row>
     <row r="4">
@@ -7644,28 +7644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>157.3180924082776</v>
+        <v>183.0641675418159</v>
       </c>
       <c r="AB4" t="n">
-        <v>215.249554417318</v>
+        <v>250.4764702516789</v>
       </c>
       <c r="AC4" t="n">
-        <v>194.7064390484378</v>
+        <v>226.5713474768654</v>
       </c>
       <c r="AD4" t="n">
-        <v>157318.0924082776</v>
+        <v>183064.1675418159</v>
       </c>
       <c r="AE4" t="n">
-        <v>215249.554417318</v>
+        <v>250476.4702516789</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.363051096967924e-06</v>
+        <v>6.312342372269693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.021484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>194706.4390484378</v>
+        <v>226571.3474768654</v>
       </c>
     </row>
     <row r="5">
@@ -7750,28 +7750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.4439467902288</v>
+        <v>172.6865867689734</v>
       </c>
       <c r="AB5" t="n">
-        <v>189.4251157141786</v>
+        <v>236.2774064117311</v>
       </c>
       <c r="AC5" t="n">
-        <v>171.3466485302905</v>
+        <v>213.7274223612864</v>
       </c>
       <c r="AD5" t="n">
-        <v>138443.9467902288</v>
+        <v>172686.5867689734</v>
       </c>
       <c r="AE5" t="n">
-        <v>189425.1157141787</v>
+        <v>236277.4064117311</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.58393291156205e-06</v>
+        <v>6.631908108846849e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.682942708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>171346.6485302905</v>
+        <v>213727.4223612864</v>
       </c>
     </row>
     <row r="6">
@@ -7856,28 +7856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>130.3036833945827</v>
+        <v>155.9644176735493</v>
       </c>
       <c r="AB6" t="n">
-        <v>178.2872482131859</v>
+        <v>213.3973969253492</v>
       </c>
       <c r="AC6" t="n">
-        <v>161.2717634714937</v>
+        <v>193.0310488679825</v>
       </c>
       <c r="AD6" t="n">
-        <v>130303.6833945827</v>
+        <v>155964.4176735493</v>
       </c>
       <c r="AE6" t="n">
-        <v>178287.2482131859</v>
+        <v>213397.3969253492</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.748911957571213e-06</v>
+        <v>6.870595256788799e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.451822916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>161271.7634714937</v>
+        <v>193031.0488679826</v>
       </c>
     </row>
     <row r="7">
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>130.667552739779</v>
+        <v>156.3282870187456</v>
       </c>
       <c r="AB7" t="n">
-        <v>178.7851103040658</v>
+        <v>213.895259016229</v>
       </c>
       <c r="AC7" t="n">
-        <v>161.722110303174</v>
+        <v>193.4813956996628</v>
       </c>
       <c r="AD7" t="n">
-        <v>130667.552739779</v>
+        <v>156328.2870187456</v>
       </c>
       <c r="AE7" t="n">
-        <v>178785.1103040658</v>
+        <v>213895.259016229</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.746935597065684e-06</v>
+        <v>6.86773591274614e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.455078125</v>
       </c>
       <c r="AH7" t="n">
-        <v>161722.110303174</v>
+        <v>193481.3956996628</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.424179970689</v>
+        <v>207.8927577580559</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.0231022044047</v>
+        <v>284.4480427456151</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.1156342046255</v>
+        <v>257.3007207713926</v>
       </c>
       <c r="AD2" t="n">
-        <v>175424.1799706889</v>
+        <v>207892.7577580559</v>
       </c>
       <c r="AE2" t="n">
-        <v>240023.1022044047</v>
+        <v>284448.0427456151</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.884658137995079e-06</v>
+        <v>5.83353135661233e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.531901041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>217115.6342046255</v>
+        <v>257300.7207713926</v>
       </c>
     </row>
     <row r="3">
@@ -8365,28 +8365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.2681280044033</v>
+        <v>149.566024082627</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.4514262402353</v>
+        <v>204.6428325370505</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.1381673149025</v>
+        <v>185.112007817792</v>
       </c>
       <c r="AD3" t="n">
-        <v>117268.1280044033</v>
+        <v>149566.024082627</v>
       </c>
       <c r="AE3" t="n">
-        <v>160451.4262402353</v>
+        <v>204642.8325370505</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.961659600062278e-06</v>
+        <v>7.45084788149164e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.6796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>145138.1673149025</v>
+        <v>185112.007817792</v>
       </c>
     </row>
     <row r="4">
@@ -8471,28 +8471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.6910512315744</v>
+        <v>139.0638197857425</v>
       </c>
       <c r="AB4" t="n">
-        <v>156.9253561070493</v>
+        <v>190.2732532935066</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.9486203663562</v>
+        <v>172.1138410494162</v>
       </c>
       <c r="AD4" t="n">
-        <v>114691.0512315744</v>
+        <v>139063.8197857425</v>
       </c>
       <c r="AE4" t="n">
-        <v>156925.3561070493</v>
+        <v>190273.2532935066</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.040973661222266e-06</v>
+        <v>7.569952586812212e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.575520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>141948.6203663562</v>
+        <v>172113.8410494162</v>
       </c>
     </row>
   </sheetData>
@@ -8768,28 +8768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.6593689644245</v>
+        <v>164.0921369327458</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.5104011353545</v>
+        <v>224.5181009854434</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.1873032024951</v>
+        <v>203.0904085405911</v>
       </c>
       <c r="AD2" t="n">
-        <v>132659.3689644245</v>
+        <v>164092.1369327458</v>
       </c>
       <c r="AE2" t="n">
-        <v>181510.4011353545</v>
+        <v>224518.1009854434</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.570557235640514e-06</v>
+        <v>7.010077300741491e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.552083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>164187.3032024951</v>
+        <v>203090.4085405911</v>
       </c>
     </row>
     <row r="3">
@@ -8874,28 +8874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.7705492691402</v>
+        <v>140.1179763828899</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.8246641279385</v>
+        <v>191.7155968558298</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.6210470603365</v>
+        <v>173.4185293664936</v>
       </c>
       <c r="AD3" t="n">
-        <v>108770.5492691402</v>
+        <v>140117.9763828899</v>
       </c>
       <c r="AE3" t="n">
-        <v>148824.6641279384</v>
+        <v>191715.5968558298</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.105300235573209e-06</v>
+        <v>7.830237638375523e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.761067708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>134621.0470603365</v>
+        <v>173418.5293664936</v>
       </c>
     </row>
   </sheetData>
@@ -15352,28 +15352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.6798881569257</v>
+        <v>135.6847579357507</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.1735940620635</v>
+        <v>185.6498717966624</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.4594826288206</v>
+        <v>167.9317085936727</v>
       </c>
       <c r="AD2" t="n">
-        <v>112679.8881569257</v>
+        <v>135684.7579357507</v>
       </c>
       <c r="AE2" t="n">
-        <v>154173.5940620635</v>
+        <v>185649.8717966624</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.089202350034515e-06</v>
+        <v>7.951778285552215e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.018229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>139459.4826288206</v>
+        <v>167931.7085936727</v>
       </c>
     </row>
     <row r="3">
@@ -15458,28 +15458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.9348970201993</v>
+        <v>135.522596525993</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.5765555039058</v>
+        <v>185.4279954017755</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.8738105576131</v>
+        <v>167.7310077705082</v>
       </c>
       <c r="AD3" t="n">
-        <v>104934.8970201994</v>
+        <v>135522.596525993</v>
       </c>
       <c r="AE3" t="n">
-        <v>143576.5555039058</v>
+        <v>185427.9954017755</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.104671717127771e-06</v>
+        <v>7.975948866496506e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.995442708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>129873.8105576131</v>
+        <v>167731.0077705082</v>
       </c>
     </row>
   </sheetData>
@@ -15755,28 +15755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.5470015031579</v>
+        <v>143.6287747937957</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.7282609136045</v>
+        <v>196.5192261271233</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.7703356615488</v>
+        <v>177.7637070020726</v>
       </c>
       <c r="AD2" t="n">
-        <v>114547.0015031579</v>
+        <v>143628.7747937957</v>
       </c>
       <c r="AE2" t="n">
-        <v>156728.2609136045</v>
+        <v>196519.2261271233</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.746438479904215e-06</v>
+        <v>7.735157507906577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.076171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>141770.3356615488</v>
+        <v>177763.7070020725</v>
       </c>
     </row>
   </sheetData>
@@ -16052,28 +16052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.680097727694</v>
+        <v>266.1660759238028</v>
       </c>
       <c r="AB2" t="n">
-        <v>307.4172218972327</v>
+        <v>364.1801674974795</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.0777537022325</v>
+        <v>329.4233234415945</v>
       </c>
       <c r="AD2" t="n">
-        <v>224680.097727694</v>
+        <v>266166.0759238028</v>
       </c>
       <c r="AE2" t="n">
-        <v>307417.2218972327</v>
+        <v>364180.1674974795</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.331267450578685e-06</v>
+        <v>4.921550587035038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.622395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>278077.7537022326</v>
+        <v>329423.3234415945</v>
       </c>
     </row>
     <row r="3">
@@ -16158,28 +16158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.456597180136</v>
+        <v>170.3482736063503</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.0201333539455</v>
+        <v>233.0780231835357</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.0259311532129</v>
+        <v>210.8333837780264</v>
       </c>
       <c r="AD3" t="n">
-        <v>145456.597180136</v>
+        <v>170348.2736063504</v>
       </c>
       <c r="AE3" t="n">
-        <v>199020.1333539455</v>
+        <v>233078.0231835357</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.509146425876416e-06</v>
+        <v>6.661726375480293e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>180025.9311532129</v>
+        <v>210833.3837780264</v>
       </c>
     </row>
     <row r="4">
@@ -16264,28 +16264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.272379716593</v>
+        <v>144.0787152882357</v>
       </c>
       <c r="AB4" t="n">
-        <v>163.1937318541969</v>
+        <v>197.1348545615895</v>
       </c>
       <c r="AC4" t="n">
-        <v>147.6187511299186</v>
+        <v>178.3205807227933</v>
       </c>
       <c r="AD4" t="n">
-        <v>119272.379716593</v>
+        <v>144078.7152882357</v>
       </c>
       <c r="AE4" t="n">
-        <v>163193.7318541969</v>
+        <v>197134.8545615895</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.986462653053751e-06</v>
+        <v>7.366904207316606e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.429036458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>147618.7511299186</v>
+        <v>178320.5807227933</v>
       </c>
     </row>
     <row r="5">
@@ -16370,28 +16370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.60157867439</v>
+        <v>143.4079142460326</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.2759122746018</v>
+        <v>196.2170349819943</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.7885269628318</v>
+        <v>177.4903565557065</v>
       </c>
       <c r="AD5" t="n">
-        <v>118601.57867439</v>
+        <v>143407.9142460327</v>
       </c>
       <c r="AE5" t="n">
-        <v>162275.9122746018</v>
+        <v>196217.0349819943</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.010097044331358e-06</v>
+        <v>7.401821203322531e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.399739583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>146788.5269628318</v>
+        <v>177490.3565557065</v>
       </c>
     </row>
   </sheetData>
@@ -16667,28 +16667,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>312.7886966045144</v>
+        <v>363.792001448162</v>
       </c>
       <c r="AB2" t="n">
-        <v>427.9712939576887</v>
+        <v>497.7562657517725</v>
       </c>
       <c r="AC2" t="n">
-        <v>387.1263143238497</v>
+        <v>450.2511063537293</v>
       </c>
       <c r="AD2" t="n">
-        <v>312788.6966045144</v>
+        <v>363792.001448162</v>
       </c>
       <c r="AE2" t="n">
-        <v>427971.2939576887</v>
+        <v>497756.2657517725</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.721594756777748e-06</v>
+        <v>3.952215578890484e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.35091145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>387126.3143238497</v>
+        <v>450251.1063537293</v>
       </c>
     </row>
     <row r="3">
@@ -16773,28 +16773,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.0920880297348</v>
+        <v>207.2080193925609</v>
       </c>
       <c r="AB3" t="n">
-        <v>236.8322311261575</v>
+        <v>283.5111535054207</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.2292953836696</v>
+        <v>256.4532469253497</v>
       </c>
       <c r="AD3" t="n">
-        <v>173092.0880297348</v>
+        <v>207208.0193925609</v>
       </c>
       <c r="AE3" t="n">
-        <v>236832.2311261575</v>
+        <v>283511.1535054207</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.997366022820984e-06</v>
+        <v>5.804851082468018e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.727864583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>214229.2953836696</v>
+        <v>256453.2469253497</v>
       </c>
     </row>
     <row r="4">
@@ -16879,28 +16879,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.7599904275006</v>
+        <v>176.7905809357551</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.3305170290977</v>
+        <v>241.8926722861633</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.6884466319984</v>
+        <v>218.8067751417398</v>
       </c>
       <c r="AD4" t="n">
-        <v>142759.9904275006</v>
+        <v>176790.580935755</v>
       </c>
       <c r="AE4" t="n">
-        <v>195330.5170290977</v>
+        <v>241892.6722861633</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.475448114335848e-06</v>
+        <v>6.499107082692922e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.901041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>176688.4466319984</v>
+        <v>218806.7751417398</v>
       </c>
     </row>
     <row r="5">
@@ -16985,28 +16985,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.348525920421</v>
+        <v>158.0208152971122</v>
       </c>
       <c r="AB5" t="n">
-        <v>181.0850919691218</v>
+        <v>216.2110508757668</v>
       </c>
       <c r="AC5" t="n">
-        <v>163.8025849461624</v>
+        <v>195.5761716343614</v>
       </c>
       <c r="AD5" t="n">
-        <v>132348.525920421</v>
+        <v>158020.8152971122</v>
       </c>
       <c r="AE5" t="n">
-        <v>181085.0919691218</v>
+        <v>216211.0508757668</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.699970192248545e-06</v>
+        <v>6.825151087562341e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.572265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>163802.5849461624</v>
+        <v>195576.1716343614</v>
       </c>
     </row>
     <row r="6">
@@ -17091,28 +17091,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>128.1218613522719</v>
+        <v>153.6235585283709</v>
       </c>
       <c r="AB6" t="n">
-        <v>175.3019830397026</v>
+        <v>210.1945301715007</v>
       </c>
       <c r="AC6" t="n">
-        <v>158.5714078163207</v>
+        <v>190.1338592218686</v>
       </c>
       <c r="AD6" t="n">
-        <v>128121.8613522719</v>
+        <v>153623.5585283709</v>
       </c>
       <c r="AE6" t="n">
-        <v>175301.9830397026</v>
+        <v>210194.5301715007</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.793726664343957e-06</v>
+        <v>6.961301331353965e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.4453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>158571.4078163207</v>
+        <v>190133.8592218687</v>
       </c>
     </row>
   </sheetData>
@@ -17388,28 +17388,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.4180272673569</v>
+        <v>156.8257549180698</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.1295014924398</v>
+        <v>214.5759165428188</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.2743350342671</v>
+        <v>194.0970922272239</v>
       </c>
       <c r="AD2" t="n">
-        <v>121418.0272673569</v>
+        <v>156825.7549180698</v>
       </c>
       <c r="AE2" t="n">
-        <v>166129.5014924398</v>
+        <v>214575.9165428189</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.26796158009296e-06</v>
+        <v>7.114437672953588e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.300130208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>150274.3350342671</v>
+        <v>194097.0922272239</v>
       </c>
     </row>
   </sheetData>
@@ -17685,28 +17685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.8777980859929</v>
+        <v>175.6479619892559</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.8599507816397</v>
+        <v>240.3292906347737</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.0719133737719</v>
+        <v>217.3926004409384</v>
       </c>
       <c r="AD2" t="n">
-        <v>143877.7980859929</v>
+        <v>175647.9619892559</v>
       </c>
       <c r="AE2" t="n">
-        <v>196859.9507816397</v>
+        <v>240329.2906347737</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.319160670460775e-06</v>
+        <v>6.573359224654806e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.877604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>178071.9133737719</v>
+        <v>217392.6004409384</v>
       </c>
     </row>
     <row r="3">
@@ -17791,28 +17791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.3861337251672</v>
+        <v>142.0709567738587</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.0351780552294</v>
+        <v>194.387750786166</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.6205926408833</v>
+        <v>175.835656676111</v>
       </c>
       <c r="AD3" t="n">
-        <v>110386.1337251672</v>
+        <v>142070.9567738587</v>
       </c>
       <c r="AE3" t="n">
-        <v>151035.1780552294</v>
+        <v>194387.7507861659</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.100909208100735e-06</v>
+        <v>7.763107500610429e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.669921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>136620.5926408833</v>
+        <v>175835.656676111</v>
       </c>
     </row>
   </sheetData>
@@ -18088,28 +18088,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.3502754289766</v>
+        <v>229.0960403395604</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.7091562695098</v>
+        <v>313.4593093964237</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.1137560922953</v>
+        <v>283.5431928506258</v>
       </c>
       <c r="AD2" t="n">
-        <v>188350.2754289766</v>
+        <v>229096.0403395604</v>
       </c>
       <c r="AE2" t="n">
-        <v>257709.1562695098</v>
+        <v>313459.3093964237</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.68580206896284e-06</v>
+        <v>5.502573324800651e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.88671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>233113.7560922953</v>
+        <v>283543.1928506258</v>
       </c>
     </row>
     <row r="3">
@@ -18194,28 +18194,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.8459148302709</v>
+        <v>156.4254585878236</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.4514443668569</v>
+        <v>214.0282134439486</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.279236343127</v>
+        <v>193.6016611434036</v>
       </c>
       <c r="AD3" t="n">
-        <v>123845.9148302709</v>
+        <v>156425.4585878236</v>
       </c>
       <c r="AE3" t="n">
-        <v>169451.4443668569</v>
+        <v>214028.2134439486</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.802510541836158e-06</v>
+        <v>7.169719346057479e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.819661458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>153279.236343127</v>
+        <v>193601.6611434036</v>
       </c>
     </row>
     <row r="4">
@@ -18300,28 +18300,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.1862156716072</v>
+        <v>140.770219985272</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.9711060559009</v>
+        <v>192.6080253275655</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.7991268113181</v>
+        <v>174.2257857174184</v>
       </c>
       <c r="AD4" t="n">
-        <v>116186.2156716072</v>
+        <v>140770.219985272</v>
       </c>
       <c r="AE4" t="n">
-        <v>158971.1060559009</v>
+        <v>192608.0253275655</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.02428252545598e-06</v>
+        <v>7.500805112037841e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.520182291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>143799.1268113181</v>
+        <v>174225.7857174184</v>
       </c>
     </row>
   </sheetData>
